--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
     <t>Lrp6</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H2">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>0.690930010752</v>
+        <v>1.305963709211666</v>
       </c>
       <c r="R2">
-        <v>6.218370096768001</v>
+        <v>11.753673382905</v>
       </c>
       <c r="S2">
-        <v>0.1321092878737708</v>
+        <v>0.09363142681086757</v>
       </c>
       <c r="T2">
-        <v>0.1321092878737708</v>
+        <v>0.09363142681086754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H3">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
-        <v>2.470496653354667</v>
+        <v>3.485878897755111</v>
       </c>
       <c r="R3">
-        <v>22.234469880192</v>
+        <v>31.372910079796</v>
       </c>
       <c r="S3">
-        <v>0.4723713668393066</v>
+        <v>0.2499210449605269</v>
       </c>
       <c r="T3">
-        <v>0.4723713668393066</v>
+        <v>0.2499210449605269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H4">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>1.259306332970667</v>
+        <v>1.985536137192666</v>
       </c>
       <c r="R4">
-        <v>11.333756996736</v>
+        <v>17.869825234734</v>
       </c>
       <c r="S4">
-        <v>0.2407856950411137</v>
+        <v>0.1423535586774536</v>
       </c>
       <c r="T4">
-        <v>0.2407856950411137</v>
+        <v>0.1423535586774535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.064096</v>
+        <v>0.09043966666666665</v>
       </c>
       <c r="H5">
-        <v>0.192288</v>
+        <v>0.271319</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6497600390834546</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,524 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>0.8092551579733333</v>
+        <v>2.285422706607888</v>
       </c>
       <c r="R5">
-        <v>7.283296421759999</v>
+        <v>20.568804359471</v>
       </c>
       <c r="S5">
-        <v>0.1547336502458089</v>
+        <v>0.1638540086346067</v>
       </c>
       <c r="T5">
-        <v>0.1547336502458089</v>
+        <v>0.1638540086346067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.066467</v>
+      </c>
+      <c r="I6">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J6">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.440165</v>
+      </c>
+      <c r="N6">
+        <v>43.320495</v>
+      </c>
+      <c r="O6">
+        <v>0.1441015470002482</v>
+      </c>
+      <c r="P6">
+        <v>0.1441015470002482</v>
+      </c>
+      <c r="Q6">
+        <v>0.3199314823516667</v>
+      </c>
+      <c r="R6">
+        <v>2.879383341165</v>
+      </c>
+      <c r="S6">
+        <v>0.02293757549540554</v>
+      </c>
+      <c r="T6">
+        <v>0.02293757549540553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.066467</v>
+      </c>
+      <c r="I7">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J7">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>38.54369466666667</v>
+      </c>
+      <c r="N7">
+        <v>115.631084</v>
+      </c>
+      <c r="O7">
+        <v>0.3846359116098663</v>
+      </c>
+      <c r="P7">
+        <v>0.3846359116098662</v>
+      </c>
+      <c r="Q7">
+        <v>0.8539612511364445</v>
+      </c>
+      <c r="R7">
+        <v>7.685651260228</v>
+      </c>
+      <c r="S7">
+        <v>0.06122498643807232</v>
+      </c>
+      <c r="T7">
+        <v>0.06122498643807231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.066467</v>
+      </c>
+      <c r="I8">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J8">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>21.954262</v>
+      </c>
+      <c r="N8">
+        <v>65.862786</v>
+      </c>
+      <c r="O8">
+        <v>0.2190863551385157</v>
+      </c>
+      <c r="P8">
+        <v>0.2190863551385156</v>
+      </c>
+      <c r="Q8">
+        <v>0.4864113107846667</v>
+      </c>
+      <c r="R8">
+        <v>4.377701797062</v>
+      </c>
+      <c r="S8">
+        <v>0.03487339251808501</v>
+      </c>
+      <c r="T8">
+        <v>0.034873392518085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02215566666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.066467</v>
+      </c>
+      <c r="I9">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="J9">
+        <v>0.1591764694612614</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.27013633333333</v>
+      </c>
+      <c r="N9">
+        <v>75.81040899999999</v>
+      </c>
+      <c r="O9">
+        <v>0.2521761862513699</v>
+      </c>
+      <c r="P9">
+        <v>0.2521761862513699</v>
+      </c>
+      <c r="Q9">
+        <v>0.5598767172225555</v>
+      </c>
+      <c r="R9">
+        <v>5.038890455002999</v>
+      </c>
+      <c r="S9">
+        <v>0.04014051500969856</v>
+      </c>
+      <c r="T9">
+        <v>0.04014051500969856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.026594</v>
+      </c>
+      <c r="H10">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J10">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.440165</v>
+      </c>
+      <c r="N10">
+        <v>43.320495</v>
+      </c>
+      <c r="O10">
+        <v>0.1441015470002482</v>
+      </c>
+      <c r="P10">
+        <v>0.1441015470002482</v>
+      </c>
+      <c r="Q10">
+        <v>0.3840217480100001</v>
+      </c>
+      <c r="R10">
+        <v>3.45619573209</v>
+      </c>
+      <c r="S10">
+        <v>0.02753254469397513</v>
+      </c>
+      <c r="T10">
+        <v>0.02753254469397512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.026594</v>
+      </c>
+      <c r="H11">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J11">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>38.54369466666667</v>
+      </c>
+      <c r="N11">
+        <v>115.631084</v>
+      </c>
+      <c r="O11">
+        <v>0.3846359116098663</v>
+      </c>
+      <c r="P11">
+        <v>0.3846359116098662</v>
+      </c>
+      <c r="Q11">
+        <v>1.025031015965334</v>
+      </c>
+      <c r="R11">
+        <v>9.225279143688001</v>
+      </c>
+      <c r="S11">
+        <v>0.07348988021126704</v>
+      </c>
+      <c r="T11">
+        <v>0.07348988021126703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.026594</v>
+      </c>
+      <c r="H12">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J12">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>21.954262</v>
+      </c>
+      <c r="N12">
+        <v>65.862786</v>
+      </c>
+      <c r="O12">
+        <v>0.2190863551385157</v>
+      </c>
+      <c r="P12">
+        <v>0.2190863551385156</v>
+      </c>
+      <c r="Q12">
+        <v>0.583851643628</v>
+      </c>
+      <c r="R12">
+        <v>5.254664792652</v>
+      </c>
+      <c r="S12">
+        <v>0.04185940394297709</v>
+      </c>
+      <c r="T12">
+        <v>0.04185940394297709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.026594</v>
+      </c>
+      <c r="H13">
+        <v>0.07978200000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="J13">
+        <v>0.191063491455284</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.27013633333333</v>
+      </c>
+      <c r="N13">
+        <v>75.81040899999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2521761862513699</v>
+      </c>
+      <c r="P13">
+        <v>0.2521761862513699</v>
+      </c>
+      <c r="Q13">
+        <v>0.6720340056486667</v>
+      </c>
+      <c r="R13">
+        <v>6.048306050838</v>
+      </c>
+      <c r="S13">
+        <v>0.04818166260706472</v>
+      </c>
+      <c r="T13">
+        <v>0.04818166260706472</v>
       </c>
     </row>
   </sheetData>
